--- a/CompareSelectivityPredictions/OUTPUT/SelProf_EvaluationResults.xlsx
+++ b/CompareSelectivityPredictions/OUTPUT/SelProf_EvaluationResults.xlsx
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>473.4</v>
+        <v>474.8</v>
       </c>
       <c r="D2" t="n">
-        <v>3.577708763999663</v>
+        <v>3.701351104664349</v>
       </c>
       <c r="E2" t="n">
         <v>29.8</v>
       </c>
       <c r="F2" t="n">
-        <v>1.643167672515498</v>
+        <v>1.483239697419133</v>
       </c>
       <c r="G2" t="n">
-        <v>139.2</v>
+        <v>138.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.683281572999748</v>
+        <v>2.701851217221259</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>662.8</v>
+        <v>667.4</v>
       </c>
       <c r="D3" t="n">
-        <v>3.768288736283354</v>
+        <v>4.277849927241488</v>
       </c>
       <c r="E3" t="n">
-        <v>1846</v>
+        <v>1846.2</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.4472135954999579</v>
       </c>
       <c r="G3" t="n">
-        <v>1614</v>
+        <v>1614.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.58113883008419</v>
+        <v>1.788854381999832</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>715.2</v>
+        <v>710.6</v>
       </c>
       <c r="D4" t="n">
-        <v>3.768288736283354</v>
+        <v>4.277849927241488</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.4472135954999579</v>
       </c>
       <c r="G4" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.58113883008419</v>
+        <v>1.788854381999832</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>58.6</v>
+        <v>57.2</v>
       </c>
       <c r="D5" t="n">
-        <v>3.577708763999663</v>
+        <v>3.701351104664349</v>
       </c>
       <c r="E5" t="n">
         <v>31.2</v>
       </c>
       <c r="F5" t="n">
-        <v>1.643167672515498</v>
+        <v>1.483239697419133</v>
       </c>
       <c r="G5" t="n">
-        <v>127.8</v>
+        <v>128.6</v>
       </c>
       <c r="H5" t="n">
-        <v>2.683281572999748</v>
+        <v>2.701851217221259</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.594869109947644</v>
+        <v>0.5980104712041885</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001588036742209744</v>
+        <v>0.002382055113314639</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9820942408376963</v>
+        <v>0.9821989528795811</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001193900968690214</v>
+        <v>0.0009794914625062669</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9179057591623037</v>
+        <v>0.9175916230366493</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002074514424728677</v>
+        <v>0.001979860774993623</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.398281507679522</v>
+        <v>0.4005387833219387</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001360362259024957</v>
+        <v>0.001916249736731758</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9080882352941178</v>
+        <v>0.9137668190443333</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02350498502305959</v>
+        <v>0.01551316199690068</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8275543115641831</v>
+        <v>0.8277553313404764</v>
       </c>
       <c r="H7" t="n">
-        <v>0.009885733922770522</v>
+        <v>0.01024135476486807</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8898496240601503</v>
+        <v>0.8924812030075188</v>
       </c>
       <c r="D8" t="n">
-        <v>0.006725016473683571</v>
+        <v>0.006957426888466813</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4885245901639344</v>
+        <v>0.4885245901639345</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02693717495927048</v>
+        <v>0.0243154048757235</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5213483146067416</v>
+        <v>0.5183520599250937</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01004974371910014</v>
+        <v>0.0101192929483942</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4809600000000001</v>
+        <v>0.48432</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002737334469881229</v>
+        <v>0.003083342342329193</v>
       </c>
       <c r="E9" t="n">
-        <v>0.99838</v>
+        <v>0.9984999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0003898717737923526</v>
+        <v>0.000223606797750004</v>
       </c>
       <c r="G9" t="n">
-        <v>0.98234</v>
+        <v>0.98246</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0009964938534682624</v>
+        <v>0.001123832727766926</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5502680897330781</v>
+        <v>0.5529248500936711</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002143067284565083</v>
+        <v>0.002616403388105189</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6351556310130165</v>
+        <v>0.6365263042719149</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02507462210361537</v>
+        <v>0.02157396137272228</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6396804568678414</v>
+        <v>0.6374664949209299</v>
       </c>
       <c r="H10" t="n">
-        <v>0.009074607174637412</v>
+        <v>0.008775029059129484</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.5908416703675096</v>
+        <v>0.5938771194381034</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00143968810666124</v>
+        <v>0.002126181484210881</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8129887529249116</v>
+        <v>0.8137011656112154</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01280925461928058</v>
+        <v>0.0110097204150089</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7966780136335838</v>
+        <v>0.7954892423456996</v>
       </c>
       <c r="H11" t="n">
-        <v>0.005049145240392329</v>
+        <v>0.004868702390016653</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6854182808254309</v>
+        <v>0.6884031559304647</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002665677109798128</v>
+        <v>0.003264542425830662</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7434510457580084</v>
+        <v>0.7435051290462724</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01363350533199483</v>
+        <v>0.01225816195872076</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7518488377659394</v>
+        <v>0.7504115746977872</v>
       </c>
       <c r="H12" t="n">
-        <v>0.005375891283939444</v>
+        <v>0.005297354240977698</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3429051012600933</v>
+        <v>0.3481224624148653</v>
       </c>
       <c r="D13" t="n">
-        <v>0.005369188938772609</v>
+        <v>0.006329323882765402</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6587595892133727</v>
+        <v>0.6609208421238527</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02687012664174311</v>
+        <v>0.02224618269343358</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6163376413816253</v>
+        <v>0.6144830906576368</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0108578566378104</v>
+        <v>0.01039503350008776</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9187999999999998</v>
+        <v>0.9210799999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004289522117905464</v>
+        <v>0.004561469061607252</v>
       </c>
       <c r="E14" t="n">
         <v>0.98338</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00084970583144992</v>
+        <v>0.0007726577508832784</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9266400000000001</v>
+        <v>0.92622</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001479188966968041</v>
+        <v>0.001460136979875532</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6854182808254308</v>
+        <v>0.6884031559304647</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002665677109798177</v>
+        <v>0.003264542425830698</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7434510457580084</v>
+        <v>0.7435051290462724</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01363350533199482</v>
+        <v>0.01225816195872078</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7518488377659394</v>
+        <v>0.7504115746977874</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0053758912839394</v>
+        <v>0.005297354240977699</v>
       </c>
     </row>
   </sheetData>
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>444.6</v>
+        <v>438</v>
       </c>
       <c r="D2" t="n">
-        <v>5.029910535983717</v>
+        <v>5.522680508593631</v>
       </c>
       <c r="E2" t="n">
         <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>1.870828693386971</v>
       </c>
       <c r="G2" t="n">
-        <v>153.8</v>
+        <v>149.4</v>
       </c>
       <c r="H2" t="n">
-        <v>3.420526275297414</v>
+        <v>3.911521443121589</v>
       </c>
     </row>
     <row r="3">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="D3" t="n">
-        <v>4.949747468305833</v>
+        <v>4.183300132670378</v>
       </c>
       <c r="E3" t="n">
-        <v>1842.8</v>
+        <v>1842.6</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30384048104053</v>
+        <v>2.073644135332772</v>
       </c>
       <c r="G3" t="n">
-        <v>1599.6</v>
+        <v>1596.2</v>
       </c>
       <c r="H3" t="n">
-        <v>2.607680962081059</v>
+        <v>3.768288736283354</v>
       </c>
     </row>
     <row r="4">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D4" t="n">
-        <v>4.949747468305833</v>
+        <v>4.183300132670378</v>
       </c>
       <c r="E4" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="F4" t="n">
-        <v>1.30384048104053</v>
+        <v>2.073644135332772</v>
       </c>
       <c r="G4" t="n">
-        <v>43.4</v>
+        <v>46.8</v>
       </c>
       <c r="H4" t="n">
-        <v>2.607680962081059</v>
+        <v>3.768288736283354</v>
       </c>
     </row>
     <row r="5">
@@ -1017,22 +1017,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>87.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="D5" t="n">
-        <v>5.029910535983717</v>
+        <v>5.522680508593631</v>
       </c>
       <c r="E5" t="n">
         <v>28</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>1.870828693386971</v>
       </c>
       <c r="G5" t="n">
-        <v>113.2</v>
+        <v>117.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.420526275297414</v>
+        <v>3.911521443121589</v>
       </c>
     </row>
     <row r="6">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6149738219895288</v>
+        <v>0.6157068062827225</v>
       </c>
       <c r="D6" t="n">
-        <v>0.004149028849457372</v>
+        <v>0.004285525011451539</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9820942408376963</v>
+        <v>0.9819895287958115</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0006826389953091909</v>
+        <v>0.001508362334124406</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9180104712041885</v>
+        <v>0.9139267015706807</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00283400389585852</v>
+        <v>0.002554201239298553</v>
       </c>
     </row>
     <row r="7">
@@ -1073,22 +1073,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4069167003464937</v>
+        <v>0.4063016539680023</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003672889003277122</v>
+        <v>0.003966719263104159</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8426645095066148</v>
+        <v>0.8389532013199805</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02645310961487971</v>
+        <v>0.04418674806776238</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7799125550934902</v>
+        <v>0.7616502399251242</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01292058076437251</v>
+        <v>0.01461101046963277</v>
       </c>
     </row>
     <row r="8">
@@ -1101,22 +1101,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8357142857142856</v>
+        <v>0.8233082706766919</v>
       </c>
       <c r="D8" t="n">
-        <v>0.009454719052601</v>
+        <v>0.01038097839961207</v>
       </c>
       <c r="E8" t="n">
         <v>0.5409836065573771</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01639344262295078</v>
+        <v>0.03066932284240934</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5760299625468164</v>
+        <v>0.5595505617977528</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01281095983257459</v>
+        <v>0.01464989304539919</v>
       </c>
     </row>
     <row r="9">
@@ -1129,22 +1129,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.52976</v>
+        <v>0.5355399999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00357603131977337</v>
+        <v>0.003041874422128569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9966600000000001</v>
+        <v>0.9965399999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.000702139587261657</v>
+        <v>0.001119374825516458</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9735800000000001</v>
+        <v>0.9715199999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00159749804381729</v>
+        <v>0.002260973241770016</v>
       </c>
     </row>
     <row r="10">
@@ -1157,22 +1157,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5473294330517873</v>
+        <v>0.5440913037629687</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004642699272776883</v>
+        <v>0.0051217307055862</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6586378785292835</v>
+        <v>0.657225669014632</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0114836739590463</v>
+        <v>0.02656633502284643</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6626175792246041</v>
+        <v>0.6450276413686152</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01113346456951562</v>
+        <v>0.01036316436020858</v>
       </c>
     </row>
     <row r="11">
@@ -1185,22 +1185,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6061771944564882</v>
+        <v>0.6059825801107241</v>
       </c>
       <c r="D11" t="n">
-        <v>0.003817480485529356</v>
+        <v>0.004036686524644843</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8247218966944949</v>
+        <v>0.8239886561915535</v>
       </c>
       <c r="F11" t="n">
-        <v>0.005878541680304309</v>
+        <v>0.01361039026965394</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8079762135254047</v>
+        <v>0.798026191939214</v>
       </c>
       <c r="H11" t="n">
-        <v>0.006272883231925886</v>
+        <v>0.005771787480290078</v>
       </c>
     </row>
     <row r="12">
@@ -1213,22 +1213,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.682733775658304</v>
+        <v>0.6794335257592456</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00547784262718867</v>
+        <v>0.005977000308442426</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7688152213425068</v>
+        <v>0.768761138054243</v>
       </c>
       <c r="F12" t="n">
-        <v>0.008068086801615883</v>
+        <v>0.01538097990146325</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7748074341035969</v>
+        <v>0.7655330410936421</v>
       </c>
       <c r="H12" t="n">
-        <v>0.006914820691480117</v>
+        <v>0.007191769646361737</v>
       </c>
     </row>
     <row r="13">
@@ -1241,22 +1241,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3311251747697097</v>
+        <v>0.3244542102821556</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01003278778448533</v>
+        <v>0.01093516327225223</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6669284197429615</v>
+        <v>0.665224495574849</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01317415087818279</v>
+        <v>0.03021957155340162</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6263512695974294</v>
+        <v>0.6066255089362224</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01378939460958287</v>
+        <v>0.01248842758164078</v>
       </c>
     </row>
     <row r="14">
@@ -1269,22 +1269,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.89308</v>
+        <v>0.88702</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00571506780362228</v>
+        <v>0.006154023074379874</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9850200000000001</v>
+        <v>0.9850199999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0005263078946776286</v>
+        <v>0.0009628083921528554</v>
       </c>
       <c r="G14" t="n">
-        <v>0.93392</v>
+        <v>0.9313800000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001947305831142078</v>
+        <v>0.002117073451725288</v>
       </c>
     </row>
     <row r="15">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.682733775658304</v>
+        <v>0.6794335257592458</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0054778426271887</v>
+        <v>0.005977000308442447</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7688152213425068</v>
+        <v>0.768761138054243</v>
       </c>
       <c r="F15" t="n">
-        <v>0.008068086801615856</v>
+        <v>0.01538097990146328</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7748074341035969</v>
+        <v>0.7655330410936421</v>
       </c>
       <c r="H15" t="n">
-        <v>0.006914820691480073</v>
+        <v>0.007191769646361804</v>
       </c>
     </row>
   </sheetData>
@@ -1381,22 +1381,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D2" t="n">
-        <v>4.301162633521313</v>
+        <v>4.123105625617661</v>
       </c>
       <c r="E2" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8366600265340756</v>
+        <v>0.8944271909999159</v>
       </c>
       <c r="G2" t="n">
-        <v>139.8</v>
+        <v>141.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.30384048104053</v>
+        <v>2.774887385102322</v>
       </c>
     </row>
     <row r="3">
@@ -1409,22 +1409,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>729.4</v>
+        <v>738.6</v>
       </c>
       <c r="D3" t="n">
-        <v>4.61519230368573</v>
+        <v>13.53883303686104</v>
       </c>
       <c r="E3" t="n">
-        <v>1843.6</v>
+        <v>1844.6</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5477225575051661</v>
+        <v>0.8944271909999159</v>
       </c>
       <c r="G3" t="n">
-        <v>1604.4</v>
+        <v>1608.6</v>
       </c>
       <c r="H3" t="n">
-        <v>3.646916505762094</v>
+        <v>3.286335345030997</v>
       </c>
     </row>
     <row r="4">
@@ -1437,22 +1437,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>648.6</v>
+        <v>639.4</v>
       </c>
       <c r="D4" t="n">
-        <v>4.61519230368573</v>
+        <v>13.53883303686104</v>
       </c>
       <c r="E4" t="n">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5477225575051661</v>
+        <v>0.8944271909999159</v>
       </c>
       <c r="G4" t="n">
-        <v>38.6</v>
+        <v>34.4</v>
       </c>
       <c r="H4" t="n">
-        <v>3.646916505762094</v>
+        <v>3.286335345030996</v>
       </c>
     </row>
     <row r="5">
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" t="n">
-        <v>4.301162633521313</v>
+        <v>4.123105625617661</v>
       </c>
       <c r="E5" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8366600265340756</v>
+        <v>0.8944271909999159</v>
       </c>
       <c r="G5" t="n">
-        <v>127.2</v>
+        <v>125.2</v>
       </c>
       <c r="H5" t="n">
-        <v>1.30384048104053</v>
+        <v>2.774887385102322</v>
       </c>
     </row>
     <row r="6">
@@ -1493,22 +1493,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6201047120418848</v>
+        <v>0.6254450261780106</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001720594421482202</v>
+        <v>0.008191667943710158</v>
       </c>
       <c r="E6" t="n">
-        <v>0.983455497382199</v>
+        <v>0.9838743455497383</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0002867657369137211</v>
+        <v>0.0002341432437172731</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9131937172774869</v>
+        <v>0.9164397905759163</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00226405741470572</v>
+        <v>0.002975554395472811</v>
       </c>
     </row>
     <row r="7">
@@ -1521,22 +1521,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4122840498529697</v>
+        <v>0.4163327486817689</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00156118992643484</v>
+        <v>0.006304406307591906</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8658782274635932</v>
+        <v>0.8878205128205128</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00973200434509097</v>
+        <v>0.0188258655840877</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7838623281230145</v>
+        <v>0.8048448132747893</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01692440427036008</v>
+        <v>0.01738529100000113</v>
       </c>
     </row>
     <row r="8">
@@ -1549,22 +1549,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8552631578947368</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D8" t="n">
-        <v>0.008084892168273147</v>
+        <v>0.007750198544394108</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5704918032786885</v>
+        <v>0.5672131147540983</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01371573813990289</v>
+        <v>0.01466274083606416</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5235955056179775</v>
+        <v>0.5310861423220974</v>
       </c>
       <c r="H8" t="n">
-        <v>0.004883297681799693</v>
+        <v>0.0103928366483233</v>
       </c>
     </row>
     <row r="9">
@@ -1577,22 +1577,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.52932</v>
+        <v>0.53596</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003361844731691215</v>
+        <v>0.009827665032956699</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9971</v>
+        <v>0.9976200000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0002738612787525529</v>
+        <v>0.0004868264577855245</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9765</v>
+        <v>0.9790599999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002228227995515713</v>
+        <v>0.001971801207018624</v>
       </c>
     </row>
     <row r="10">
@@ -1605,22 +1605,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5563624976116099</v>
+        <v>0.5604324693892582</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002548082615041387</v>
+        <v>0.006205217315337751</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6876745885896413</v>
+        <v>0.6919240583852199</v>
       </c>
       <c r="F10" t="n">
-        <v>0.007453688365899516</v>
+        <v>0.006350977232323931</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6277803824827424</v>
+        <v>0.639897459798319</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00686323482295447</v>
+        <v>0.01114647310752858</v>
       </c>
     </row>
     <row r="11">
@@ -1633,22 +1633,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6120922988812143</v>
+        <v>0.6170584783576215</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00158490409976988</v>
+        <v>0.006921502016915126</v>
       </c>
       <c r="E11" t="n">
-        <v>0.839588623076882</v>
+        <v>0.8418222435241347</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003786246314399417</v>
+        <v>0.003208616015038146</v>
       </c>
       <c r="G11" t="n">
-        <v>0.789323890194199</v>
+        <v>0.7963167726234156</v>
       </c>
       <c r="H11" t="n">
-        <v>0.004007495986183938</v>
+        <v>0.006321893714362396</v>
       </c>
     </row>
     <row r="12">
@@ -1661,22 +1661,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6922905049270491</v>
+        <v>0.6965685258138089</v>
       </c>
       <c r="D12" t="n">
-        <v>0.003042381436948068</v>
+        <v>0.007370505816588487</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7837856528562183</v>
+        <v>0.7824167250352427</v>
       </c>
       <c r="F12" t="n">
-        <v>0.006745423333701206</v>
+        <v>0.007120698895279244</v>
       </c>
       <c r="G12" t="n">
-        <v>0.750050948183304</v>
+        <v>0.7550744162614746</v>
       </c>
       <c r="H12" t="n">
-        <v>0.003049914035616711</v>
+        <v>0.005988944162914313</v>
       </c>
     </row>
     <row r="13">
@@ -1689,22 +1689,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3490657219475413</v>
+        <v>0.3563525753455993</v>
       </c>
       <c r="D13" t="n">
-        <v>0.005892565496790688</v>
+        <v>0.01288825449459133</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6952684674264068</v>
+        <v>0.7023567567498337</v>
       </c>
       <c r="F13" t="n">
-        <v>0.006723616340279225</v>
+        <v>0.004932210134642094</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5960314764265208</v>
+        <v>0.6113451868089166</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01031596123725211</v>
+        <v>0.01462665093820236</v>
       </c>
     </row>
     <row r="14">
@@ -1717,22 +1717,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9045200000000001</v>
+        <v>0.9066799999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004472918510324135</v>
+        <v>0.005436634988667184</v>
       </c>
       <c r="E14" t="n">
-        <v>0.986</v>
+        <v>0.9859</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0004183300132670315</v>
+        <v>0.0004472135954999583</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9265599999999999</v>
+        <v>0.9277799999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0007924645102463561</v>
+        <v>0.001578606980853699</v>
       </c>
     </row>
     <row r="15">
@@ -1745,22 +1745,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6922905049270491</v>
+        <v>0.6965685258138089</v>
       </c>
       <c r="D15" t="n">
-        <v>0.003042381436948068</v>
+        <v>0.007370505816588509</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7837856528562183</v>
+        <v>0.7824167250352427</v>
       </c>
       <c r="F15" t="n">
-        <v>0.006745423333701266</v>
+        <v>0.007120698895279293</v>
       </c>
       <c r="G15" t="n">
-        <v>0.750050948183304</v>
+        <v>0.7550744162614746</v>
       </c>
       <c r="H15" t="n">
-        <v>0.003049914035616708</v>
+        <v>0.005988944162914243</v>
       </c>
     </row>
   </sheetData>
@@ -1829,22 +1829,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>447</v>
+        <v>440.8</v>
       </c>
       <c r="D2" t="n">
-        <v>3.391164991562634</v>
+        <v>4.147288270665544</v>
       </c>
       <c r="E2" t="n">
-        <v>34.4</v>
+        <v>31.8</v>
       </c>
       <c r="F2" t="n">
-        <v>1.140175425099138</v>
+        <v>0.8366600265340756</v>
       </c>
       <c r="G2" t="n">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2.91547594742265</v>
       </c>
     </row>
     <row r="3">
@@ -1857,22 +1857,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>778.6</v>
+        <v>767</v>
       </c>
       <c r="D3" t="n">
-        <v>6.985699678629192</v>
+        <v>6.244997998398398</v>
       </c>
       <c r="E3" t="n">
-        <v>1846.2</v>
+        <v>1845.8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8366600265340756</v>
+        <v>1.30384048104053</v>
       </c>
       <c r="G3" t="n">
-        <v>1592.4</v>
+        <v>1595.2</v>
       </c>
       <c r="H3" t="n">
-        <v>2.073644135332772</v>
+        <v>3.114482300479487</v>
       </c>
     </row>
     <row r="4">
@@ -1885,22 +1885,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>599.4</v>
+        <v>611</v>
       </c>
       <c r="D4" t="n">
-        <v>6.985699678629192</v>
+        <v>6.244997998398398</v>
       </c>
       <c r="E4" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8366600265340756</v>
+        <v>1.30384048104053</v>
       </c>
       <c r="G4" t="n">
-        <v>50.6</v>
+        <v>47.8</v>
       </c>
       <c r="H4" t="n">
-        <v>2.073644135332772</v>
+        <v>3.114482300479488</v>
       </c>
     </row>
     <row r="5">
@@ -1913,22 +1913,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>85</v>
+        <v>91.2</v>
       </c>
       <c r="D5" t="n">
-        <v>3.391164991562634</v>
+        <v>4.147288270665544</v>
       </c>
       <c r="E5" t="n">
-        <v>26.6</v>
+        <v>29.2</v>
       </c>
       <c r="F5" t="n">
-        <v>1.140175425099138</v>
+        <v>0.8366600265340756</v>
       </c>
       <c r="G5" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2.91547594742265</v>
       </c>
     </row>
     <row r="6">
@@ -1941,22 +1941,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6416753926701571</v>
+        <v>0.6323560209424084</v>
       </c>
       <c r="D6" t="n">
-        <v>0.003323679633110752</v>
+        <v>0.002679891914569568</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9846073298429319</v>
+        <v>0.9830366492146597</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0004682864874344903</v>
+        <v>0.0007940183711048866</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9253403141361257</v>
+        <v>0.9241884816753927</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002554201239298519</v>
+        <v>0.002410652237323807</v>
       </c>
     </row>
     <row r="7">
@@ -1969,22 +1969,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4271883181147739</v>
+        <v>0.419093969545148</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002661710591338333</v>
+        <v>0.002213646191830434</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9253281853281854</v>
+        <v>0.9095718254541783</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01907898561750649</v>
+        <v>0.03380626312981466</v>
       </c>
       <c r="G7" t="n">
-        <v>0.775690553560468</v>
+        <v>0.7806133173166316</v>
       </c>
       <c r="H7" t="n">
-        <v>0.008903611334815391</v>
+        <v>0.01190290188839302</v>
       </c>
     </row>
     <row r="8">
@@ -1997,22 +1997,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8402255639097744</v>
+        <v>0.8285714285714285</v>
       </c>
       <c r="D8" t="n">
-        <v>0.006374370284892158</v>
+        <v>0.007795654644108171</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5639344262295081</v>
+        <v>0.521311475409836</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01869140041146126</v>
+        <v>0.01371573813990289</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6554307116104868</v>
+        <v>0.6367041198501873</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01498127340823968</v>
+        <v>0.01091938557087138</v>
       </c>
     </row>
     <row r="9">
@@ -2025,22 +2025,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.56502</v>
+        <v>0.5566000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005076120565944046</v>
+        <v>0.004527692569068729</v>
       </c>
       <c r="E9" t="n">
-        <v>0.99848</v>
+        <v>0.9982599999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0004549725266430942</v>
+        <v>0.0007021395872616895</v>
       </c>
       <c r="G9" t="n">
-        <v>0.96922</v>
+        <v>0.9709200000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001273577637994621</v>
+        <v>0.001868689380287688</v>
       </c>
     </row>
     <row r="10">
@@ -2053,22 +2053,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5663971775393668</v>
+        <v>0.5566307450869316</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00270911075029628</v>
+        <v>0.002759435102592791</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7004824206910486</v>
+        <v>0.6625139981530299</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01095268715341106</v>
+        <v>0.01277009399373406</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7104611395599929</v>
+        <v>0.7013085349912723</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01026088031411074</v>
+        <v>0.008628087778614088</v>
       </c>
     </row>
     <row r="11">
@@ -2081,22 +2081,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6305348612775381</v>
+        <v>0.6213040409475628</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002729655815857786</v>
+        <v>0.002262868606473113</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8462915251849259</v>
+        <v>0.8269068084929337</v>
       </c>
       <c r="F11" t="n">
-        <v>0.005573411575895498</v>
+        <v>0.006556242674027281</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8338028245568948</v>
+        <v>0.8289463566455826</v>
       </c>
       <c r="H11" t="n">
-        <v>0.005761315413484764</v>
+        <v>0.00491051599982653</v>
       </c>
     </row>
     <row r="12">
@@ -2109,22 +2109,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.7026236672959613</v>
+        <v>0.6925876010781671</v>
       </c>
       <c r="D12" t="n">
-        <v>0.003124513779743384</v>
+        <v>0.00317758854520261</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7812100470790592</v>
+        <v>0.7597904050926954</v>
       </c>
       <c r="F12" t="n">
-        <v>0.009205078273570722</v>
+        <v>0.006850768420242683</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8123166948192422</v>
+        <v>0.8038054987564995</v>
       </c>
       <c r="H12" t="n">
-        <v>0.007648691608831307</v>
+        <v>0.005693526795082567</v>
       </c>
     </row>
     <row r="13">
@@ -2137,22 +2137,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3650153805298367</v>
+        <v>0.3471340654252015</v>
       </c>
       <c r="D13" t="n">
-        <v>0.005635207371280837</v>
+        <v>0.005868951151796283</v>
       </c>
       <c r="E13" t="n">
-        <v>0.715689856386713</v>
+        <v>0.6814110784241041</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0101785669822704</v>
+        <v>0.01622043334305719</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6711076330711954</v>
+        <v>0.662917565411912</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01243362282434265</v>
+        <v>0.01092136822002314</v>
       </c>
     </row>
     <row r="14">
@@ -2165,22 +2165,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9015799999999998</v>
+        <v>0.89374</v>
       </c>
       <c r="D14" t="n">
-        <v>0.003325206760488733</v>
+        <v>0.003934208942087349</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9858</v>
+        <v>0.9844200000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0005700877125495792</v>
+        <v>0.0004549725266430941</v>
       </c>
       <c r="G14" t="n">
-        <v>0.94536</v>
+        <v>0.94268</v>
       </c>
       <c r="H14" t="n">
-        <v>0.002282104292095366</v>
+        <v>0.001642254547870082</v>
       </c>
     </row>
     <row r="15">
@@ -2193,22 +2193,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7026236672959613</v>
+        <v>0.6925876010781671</v>
       </c>
       <c r="D15" t="n">
-        <v>0.003124513779743406</v>
+        <v>0.003177588545202622</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7812100470790592</v>
+        <v>0.7597904050926954</v>
       </c>
       <c r="F15" t="n">
-        <v>0.009205078273570722</v>
+        <v>0.006850768420242683</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8123166948192422</v>
+        <v>0.8038054987564995</v>
       </c>
       <c r="H15" t="n">
-        <v>0.007648691608831275</v>
+        <v>0.005693526795082523</v>
       </c>
     </row>
   </sheetData>
@@ -2277,22 +2277,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>464</v>
+        <v>463.8</v>
       </c>
       <c r="D2" t="n">
-        <v>2.449489742783178</v>
+        <v>2.774887385102322</v>
       </c>
       <c r="E2" t="n">
-        <v>32.6</v>
+        <v>31.8</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8944271909999159</v>
+        <v>0.4472135954999579</v>
       </c>
       <c r="G2" t="n">
-        <v>140.6</v>
+        <v>138.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.507135583350036</v>
+        <v>2.302172886644267</v>
       </c>
     </row>
     <row r="3">
@@ -2305,22 +2305,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>712.8</v>
+        <v>716.4</v>
       </c>
       <c r="D3" t="n">
-        <v>7.726577508832744</v>
+        <v>3.646916505762094</v>
       </c>
       <c r="E3" t="n">
-        <v>1844.6</v>
+        <v>1845.2</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5477225575051661</v>
+        <v>0.4472135954999579</v>
       </c>
       <c r="G3" t="n">
         <v>1610.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.03315017762062</v>
+        <v>2.949576240750525</v>
       </c>
     </row>
     <row r="4">
@@ -2333,22 +2333,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>665.2</v>
+        <v>661.6</v>
       </c>
       <c r="D4" t="n">
-        <v>7.726577508832744</v>
+        <v>3.646916505762094</v>
       </c>
       <c r="E4" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5477225575051661</v>
+        <v>0.4472135954999579</v>
       </c>
       <c r="G4" t="n">
         <v>32.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.03315017762062</v>
+        <v>2.949576240750525</v>
       </c>
     </row>
     <row r="5">
@@ -2361,22 +2361,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="D5" t="n">
-        <v>2.449489742783178</v>
+        <v>2.774887385102322</v>
       </c>
       <c r="E5" t="n">
-        <v>28.4</v>
+        <v>29.2</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8944271909999159</v>
+        <v>0.4472135954999579</v>
       </c>
       <c r="G5" t="n">
-        <v>126.4</v>
+        <v>128.4</v>
       </c>
       <c r="H5" t="n">
-        <v>3.507135583350036</v>
+        <v>2.302172886644267</v>
       </c>
     </row>
     <row r="6">
@@ -2389,22 +2389,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6161256544502617</v>
+        <v>0.6179057591623037</v>
       </c>
       <c r="D6" t="n">
-        <v>0.004079068310111514</v>
+        <v>0.002755538715589691</v>
       </c>
       <c r="E6" t="n">
-        <v>0.98282722513089</v>
+        <v>0.9827225130890053</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00043804189870892</v>
+        <v>0.0003702129744432072</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9166492146596859</v>
+        <v>0.9156020942408378</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002755538715589668</v>
+        <v>0.00246685214437482</v>
       </c>
     </row>
     <row r="7">
@@ -2417,22 +2417,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.410923169689447</v>
+        <v>0.4121211052834551</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002917643021351744</v>
+        <v>0.002271287168349314</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8812680349522454</v>
+        <v>0.8933333333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01199574641156319</v>
+        <v>0.01179312737841697</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8109292896755091</v>
+        <v>0.8087312076468507</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01592892393808197</v>
+        <v>0.01578876694856604</v>
       </c>
     </row>
     <row r="8">
@@ -2445,22 +2445,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8721804511278195</v>
+        <v>0.8718045112781955</v>
       </c>
       <c r="D8" t="n">
-        <v>0.004604304027787952</v>
+        <v>0.005215953731395349</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5344262295081967</v>
+        <v>0.5213114754098361</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01466274083606421</v>
+        <v>0.007331370418032106</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5265917602996255</v>
+        <v>0.5191011235955056</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01313533926348326</v>
+        <v>0.008622370361963524</v>
       </c>
     </row>
     <row r="9">
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.51728</v>
+        <v>0.51988</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005600178568581529</v>
+        <v>0.002648962060883463</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9975999999999999</v>
+        <v>0.99792</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0002738612787526137</v>
+        <v>0.0002683281572999452</v>
       </c>
       <c r="G9" t="n">
         <v>0.98004</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001859569842732468</v>
+        <v>0.001810524785801063</v>
       </c>
     </row>
     <row r="10">
@@ -2501,22 +2501,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5586387929540019</v>
+        <v>0.5596715701623495</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002797576035654638</v>
+        <v>0.002726397404270295</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6652210884353742</v>
+        <v>0.6583762886597937</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01016005240220667</v>
+        <v>0.006812991028490299</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6384756164582468</v>
+        <v>0.6323046608283442</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01144422061447487</v>
+        <v>0.009263099095550757</v>
       </c>
     </row>
     <row r="11">
@@ -2529,22 +2529,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6094961361400624</v>
+        <v>0.6111028105867902</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00338856518299775</v>
+        <v>0.002462795303168853</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8282043250550897</v>
+        <v>0.8247567106172629</v>
       </c>
       <c r="F11" t="n">
-        <v>0.005174027031413692</v>
+        <v>0.003488530476983693</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7956848089645929</v>
+        <v>0.792317330891342</v>
       </c>
       <c r="H11" t="n">
-        <v>0.006391772989302444</v>
+        <v>0.005247080615475781</v>
       </c>
     </row>
     <row r="12">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6947259294826325</v>
+        <v>0.6958442004867029</v>
       </c>
       <c r="D12" t="n">
-        <v>0.003384477273099873</v>
+        <v>0.003292020989322511</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7660232824122921</v>
+        <v>0.7596281552279034</v>
       </c>
       <c r="F12" t="n">
-        <v>0.007272160506954025</v>
+        <v>0.003697773097784675</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7533141394316144</v>
+        <v>0.7495688210795544</v>
       </c>
       <c r="H12" t="n">
-        <v>0.006893448289497154</v>
+        <v>0.00490562302200271</v>
       </c>
     </row>
     <row r="13">
@@ -2585,22 +2585,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3551313257341532</v>
+        <v>0.3569001885574113</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00588461836792233</v>
+        <v>0.006015032277663135</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6787562934703926</v>
+        <v>0.6750992270082717</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00983464570925017</v>
+        <v>0.00786789285775694</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6115020186244065</v>
+        <v>0.6056350020350122</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01409266401289201</v>
+        <v>0.01230394449905621</v>
       </c>
     </row>
     <row r="14">
@@ -2613,22 +2613,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.91292</v>
+        <v>0.9130800000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002884787687161733</v>
+        <v>0.003408372045419928</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9848399999999999</v>
+        <v>0.9844000000000002</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0004722287581247011</v>
+        <v>0.000223606797750004</v>
       </c>
       <c r="G14" t="n">
-        <v>0.92724</v>
+        <v>0.92616</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001926914632255419</v>
+        <v>0.001329661611087568</v>
       </c>
     </row>
     <row r="15">
@@ -2641,22 +2641,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6947259294826325</v>
+        <v>0.6958442004867029</v>
       </c>
       <c r="D15" t="n">
-        <v>0.003384477273099904</v>
+        <v>0.003292020989322516</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7660232824122921</v>
+        <v>0.7596281552279034</v>
       </c>
       <c r="F15" t="n">
-        <v>0.007272160506954025</v>
+        <v>0.003697773097784675</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7533141394316144</v>
+        <v>0.7495688210795544</v>
       </c>
       <c r="H15" t="n">
-        <v>0.006893448289497126</v>
+        <v>0.004905623022002719</v>
       </c>
     </row>
   </sheetData>
@@ -2725,22 +2725,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>479.2</v>
+        <v>479.8</v>
       </c>
       <c r="D2" t="n">
-        <v>9.959919678390985</v>
+        <v>10.25670512396647</v>
       </c>
       <c r="E2" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="F2" t="n">
-        <v>1.923538406167134</v>
+        <v>1.732050807568877</v>
       </c>
       <c r="G2" t="n">
-        <v>161.2</v>
+        <v>160</v>
       </c>
       <c r="H2" t="n">
-        <v>13.75499909123952</v>
+        <v>10.65363787633126</v>
       </c>
     </row>
     <row r="3">
@@ -2753,22 +2753,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>734.8</v>
+        <v>737.6</v>
       </c>
       <c r="D3" t="n">
-        <v>31.05157000861631</v>
+        <v>29.15990397789403</v>
       </c>
       <c r="E3" t="n">
-        <v>1846.6</v>
+        <v>1847</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8944271909999159</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1617.6</v>
+        <v>1618.2</v>
       </c>
       <c r="H3" t="n">
-        <v>5.176871642217914</v>
+        <v>3.701351104664349</v>
       </c>
     </row>
     <row r="4">
@@ -2781,22 +2781,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>643.2</v>
+        <v>640.4</v>
       </c>
       <c r="D4" t="n">
-        <v>31.05157000861631</v>
+        <v>29.15990397789403</v>
       </c>
       <c r="E4" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8944271909999159</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>25.4</v>
+        <v>24.8</v>
       </c>
       <c r="H4" t="n">
-        <v>5.176871642217914</v>
+        <v>3.701351104664349</v>
       </c>
     </row>
     <row r="5">
@@ -2809,22 +2809,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>52.8</v>
+        <v>52.2</v>
       </c>
       <c r="D5" t="n">
-        <v>9.959919678390985</v>
+        <v>10.25670512396647</v>
       </c>
       <c r="E5" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="F5" t="n">
-        <v>1.923538406167134</v>
+        <v>1.732050807568877</v>
       </c>
       <c r="G5" t="n">
-        <v>105.8</v>
+        <v>107</v>
       </c>
       <c r="H5" t="n">
-        <v>13.75499909123952</v>
+        <v>10.65363787633126</v>
       </c>
     </row>
     <row r="6">
@@ -2837,22 +2837,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6356020942408377</v>
+        <v>0.6373821989528796</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01268486014616305</v>
+        <v>0.01152189378304138</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9847120418848169</v>
+        <v>0.9848167539267015</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001007088170768157</v>
+        <v>0.0009794914625062966</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9313089005235602</v>
+        <v>0.9309947643979057</v>
       </c>
       <c r="H6" t="n">
-        <v>0.004600184845337959</v>
+        <v>0.003976990369598515</v>
       </c>
     </row>
     <row r="7">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4271438686455502</v>
+        <v>0.4284835764084581</v>
       </c>
       <c r="D7" t="n">
-        <v>0.008543112098573667</v>
+        <v>0.007570389227104561</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9349329270381903</v>
+        <v>0.9450299992405256</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02236106020837095</v>
+        <v>0.02558268503697898</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8648874272811394</v>
+        <v>0.8663281061064554</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0134780120806954</v>
+        <v>0.01131218507434296</v>
       </c>
     </row>
     <row r="8">
@@ -2893,22 +2893,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9007518796992482</v>
+        <v>0.9018796992481203</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01872165353081012</v>
+        <v>0.0192795209097114</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5606557377049179</v>
+        <v>0.5573770491803278</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03153341649454318</v>
+        <v>0.028394275533916</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6037453183520599</v>
+        <v>0.5992509363295879</v>
       </c>
       <c r="H8" t="n">
-        <v>0.051516850528987</v>
+        <v>0.03990126545442416</v>
       </c>
     </row>
     <row r="9">
@@ -2921,22 +2921,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.53326</v>
+        <v>0.5352600000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02254524340077084</v>
+        <v>0.02117481995200903</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9987200000000002</v>
+        <v>0.9989400000000002</v>
       </c>
       <c r="F9" t="n">
-        <v>0.000486826457785569</v>
+        <v>0.0005504543577809657</v>
       </c>
       <c r="G9" t="n">
-        <v>0.98454</v>
+        <v>0.9849</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003147697571241582</v>
+        <v>0.002249444375840421</v>
       </c>
     </row>
     <row r="10">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5793673119861652</v>
+        <v>0.5808429114817125</v>
       </c>
       <c r="D10" t="n">
-        <v>0.006246985714892857</v>
+        <v>0.005693252984273357</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7004344421424608</v>
+        <v>0.7007397400191872</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02275723793166417</v>
+        <v>0.02130550152521244</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7097728904092095</v>
+        <v>0.7076695445183359</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02672287235114913</v>
+        <v>0.02242686052412686</v>
       </c>
     </row>
     <row r="11">
@@ -2977,22 +2977,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6288722909026629</v>
+        <v>0.6305705180118346</v>
       </c>
       <c r="D11" t="n">
-        <v>0.009932280543924581</v>
+        <v>0.008996302628416494</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8462951028026225</v>
+        <v>0.8464752180965354</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01160249961174585</v>
+        <v>0.01086936932085656</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8354050317610137</v>
+        <v>0.8342726805583254</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0144355071096314</v>
+        <v>0.01214408684740816</v>
       </c>
     </row>
     <row r="12">
@@ -3005,22 +3005,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.7169942272226285</v>
+        <v>0.718574102163973</v>
       </c>
       <c r="D12" t="n">
-        <v>0.007218475716606679</v>
+        <v>0.006647100621114249</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7796788693932919</v>
+        <v>0.7781476917075246</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01571223620080674</v>
+        <v>0.01416063493357388</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7941428965466935</v>
+        <v>0.7920782983534733</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02422555884250344</v>
+        <v>0.01896547271245726</v>
       </c>
     </row>
     <row r="13">
@@ -3033,22 +3033,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3954868240595441</v>
+        <v>0.3981868422307576</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01225316711412014</v>
+        <v>0.01143349355681479</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7173287410963105</v>
+        <v>0.7192747125646999</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02205381803739569</v>
+        <v>0.02133447119725666</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6870324244108937</v>
+        <v>0.6851525284417057</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0257441671462314</v>
+        <v>0.02162758589049806</v>
       </c>
     </row>
     <row r="14">
@@ -3061,22 +3061,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.93326</v>
+        <v>0.93424</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01019671515734358</v>
+        <v>0.01033358601841588</v>
       </c>
       <c r="E14" t="n">
-        <v>0.98568</v>
+        <v>0.98558</v>
       </c>
       <c r="F14" t="n">
-        <v>0.001003493896344176</v>
+        <v>0.0009093954035511688</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9386800000000001</v>
+        <v>0.9380200000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0.007399797294520984</v>
+        <v>0.00572642995242236</v>
       </c>
     </row>
     <row r="15">
@@ -3089,22 +3089,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7169942272226284</v>
+        <v>0.718574102163973</v>
       </c>
       <c r="D15" t="n">
-        <v>0.007218475716606731</v>
+        <v>0.006647100621114242</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7796788693932919</v>
+        <v>0.7781476917075246</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01571223620080671</v>
+        <v>0.01416063493357388</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7941428965466935</v>
+        <v>0.7920782983534733</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0242255588425035</v>
+        <v>0.0189654727124572</v>
       </c>
     </row>
   </sheetData>
